--- a/Data_science_outputs/1000pop/avg_analysis/avg_analysis_4.xlsx
+++ b/Data_science_outputs/1000pop/avg_analysis/avg_analysis_4.xlsx
@@ -493,16 +493,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39254.72755281965</v>
+        <v>30629.02242373479</v>
       </c>
       <c r="C3" t="n">
         <v>22835.8589899802</v>
       </c>
       <c r="D3" t="n">
-        <v>8870.977112893846</v>
+        <v>2001.122923755706</v>
       </c>
       <c r="E3" t="n">
-        <v>7434.546439218036</v>
+        <v>5766.766797520933</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -514,16 +514,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12343.02546097713</v>
+        <v>13064.19000004552</v>
       </c>
       <c r="C4" t="n">
         <v>11424.54770464938</v>
       </c>
       <c r="D4" t="n">
-        <v>7746.570797855103</v>
+        <v>1106.488632127823</v>
       </c>
       <c r="E4" t="n">
-        <v>4173.467852595565</v>
+        <v>2790.666955247973</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12649.45235342466</v>
+        <v>10951.77036712331</v>
       </c>
       <c r="C5" t="n">
         <v>7152.303857142858</v>
       </c>
       <c r="D5" t="n">
-        <v>284.2837561643831</v>
+        <v>305.4210109589034</v>
       </c>
       <c r="E5" t="n">
-        <v>1333.489627397262</v>
+        <v>1327.549950684931</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -556,16 +556,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31944.28566438356</v>
+        <v>19811.79586438356</v>
       </c>
       <c r="C6" t="n">
         <v>13927.23985714286</v>
       </c>
       <c r="D6" t="n">
-        <v>961.5660232876701</v>
+        <v>943.9521623287665</v>
       </c>
       <c r="E6" t="n">
-        <v>3386.532067808217</v>
+        <v>2839.590938356166</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -577,16 +577,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34434.45339999999</v>
+        <v>29144.77460410962</v>
       </c>
       <c r="C7" t="n">
         <v>18988.59278571429</v>
       </c>
       <c r="D7" t="n">
-        <v>8586.636717808229</v>
+        <v>1691.096221917809</v>
       </c>
       <c r="E7" t="n">
-        <v>6796.362268493145</v>
+        <v>5573.08815479452</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -598,16 +598,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>52589.63248835616</v>
+        <v>39996.60877397274</v>
       </c>
       <c r="C8" t="n">
         <v>30907.65950000012</v>
       </c>
       <c r="D8" t="n">
-        <v>17107.60075684932</v>
+        <v>3026.278157534248</v>
       </c>
       <c r="E8" t="n">
-        <v>11935.11616369862</v>
+        <v>8864.696826712327</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -619,16 +619,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>59450.37169041084</v>
+        <v>56009.88569589027</v>
       </c>
       <c r="C9" t="n">
         <v>46024.44814285704</v>
       </c>
       <c r="D9" t="n">
-        <v>17836.55475890416</v>
+        <v>3744.757583561649</v>
       </c>
       <c r="E9" t="n">
-        <v>14224.61934794519</v>
+        <v>10261.87375068491</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -644,7 +644,7 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>56526807.67606029</v>
+        <v>44105792.29017809</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -662,7 +662,7 @@
         <v>32883636.94557144</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5846226793913727</v>
+        <v>0.7463879318832845</v>
       </c>
     </row>
     <row r="12">
@@ -676,10 +676,10 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>12774207.04256714</v>
+        <v>2881617.01020822</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2259849364884116</v>
+        <v>0.06533420806160027</v>
       </c>
     </row>
     <row r="13">
@@ -693,10 +693,10 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>10705746.87247397</v>
+        <v>8304144.188430134</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1893923841202157</v>
+        <v>0.1882778600551153</v>
       </c>
     </row>
   </sheetData>
